--- a/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-postinc-loadstore.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-postinc-loadstore.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Simulation - Copie\xpulp_instruction_extensions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\git_repos\corev-v-verif\cv32e40p\docs\VerifPlans\Simulation\xpulp_instruction_extensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73252A1-D095-4A40-8ADA-FE1C0FD8E322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6C5BB8-20EC-4C7B-9AA7-D927570D4B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="159">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -578,9 +578,6 @@
     <t>CV.LW.II</t>
   </si>
   <si>
-    <t>Related Test Program(s)</t>
-  </si>
-  <si>
     <t>corev_rand_pulp_instr_test
 pulp_post_increment_load_store</t>
   </si>
@@ -609,6 +606,18 @@
   </si>
   <si>
     <t>Toggle is not a requirement of CV32E40Pv2 verification, but the corresponding coverage from the Reference Model Coverage Package exists and is given for reference purposes only</t>
+  </si>
+  <si>
+    <t>Test-Program Type</t>
+  </si>
+  <si>
+    <t>Test-Program(s) Name(s)</t>
+  </si>
+  <si>
+    <t>UVM Test Config</t>
+  </si>
+  <si>
+    <t>see CV32E40Pv2_test_list.xlsx</t>
   </si>
 </sst>
 </file>
@@ -786,10 +795,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,16 +1108,17 @@
     <col min="3" max="3" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="80.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="64.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="39.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="80.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="64.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1129,25 +1135,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
@@ -1163,26 +1172,29 @@
       <c r="E2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
+      <c r="F2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="22" t="str">
+      <c r="J2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C2),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D2)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C2),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ii_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ii_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ii_cg.cp_rd</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
@@ -1190,26 +1202,31 @@
       <c r="E3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
+      <c r="F3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="22" t="str">
+      <c r="J3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C2),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D2)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C2),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ii_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ii_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
       <c r="C4" s="23"/>
@@ -1218,20 +1235,23 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
       <c r="C5" s="23" t="s">
@@ -1243,26 +1263,29 @@
       <c r="E5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
+      <c r="F5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="22" t="str">
+      <c r="J5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C5),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D5)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C5),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ii_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ii_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ii_cg.cp_rd</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="23"/>
@@ -1270,26 +1293,31 @@
       <c r="E6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
+      <c r="F6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="22" t="str">
+      <c r="J6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C5),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D5)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C5),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ii_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ii_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="23"/>
@@ -1298,20 +1326,23 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="23" t="s">
@@ -1323,26 +1354,29 @@
       <c r="E8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
+      <c r="F8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C8),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D8)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C8),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ii_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ii_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ii_cg.cp_rd</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="23"/>
@@ -1350,26 +1384,31 @@
       <c r="E9" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
+      <c r="F9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C8),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D8)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C8),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ii_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ii_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
@@ -1378,20 +1417,23 @@
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="23" t="s">
@@ -1403,26 +1445,29 @@
       <c r="E11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>15</v>
+      <c r="F11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="22" t="str">
+      <c r="J11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C11),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D11)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C11),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ii_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ii_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ii_cg.cp_rd</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="23"/>
@@ -1430,26 +1475,31 @@
       <c r="E12" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>15</v>
+      <c r="F12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="22" t="str">
+      <c r="J12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C11),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D11)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C11),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ii_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ii_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="23"/>
@@ -1458,20 +1508,23 @@
         <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="23" t="s">
@@ -1483,26 +1536,29 @@
       <c r="E14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>15</v>
+      <c r="F14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="22" t="str">
+      <c r="J14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C14),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D14)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C14),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ii_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ii_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ii_cg.cp_rd</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -1510,26 +1566,31 @@
       <c r="E15" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>15</v>
+      <c r="F15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="22" t="str">
+      <c r="J15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C14),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D14)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C14),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ii_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ii_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L15" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -1538,20 +1599,23 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="23" t="s">
         <v>21</v>
@@ -1565,19 +1629,22 @@
       <c r="E17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>15</v>
+      <c r="F17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="22" t="str">
+      <c r="J17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C17),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D17)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C17),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ri_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ri_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1585,7 +1652,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ri_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1593,27 +1660,32 @@
       <c r="E18" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>15</v>
+      <c r="F18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="22" t="str">
+      <c r="J18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C17),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D17)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C17),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ri_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ri_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_ri_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1622,20 +1694,23 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23" t="s">
@@ -1647,19 +1722,22 @@
       <c r="E20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>15</v>
+      <c r="F20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="22" t="str">
+      <c r="J20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C20),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D20)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C20),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ri_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ri_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1667,7 +1745,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ri_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1675,27 +1753,32 @@
       <c r="E21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>15</v>
+      <c r="F21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="22" t="str">
+      <c r="J21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C20),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D20)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C20),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ri_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ri_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_ri_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1704,20 +1787,23 @@
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -1729,19 +1815,22 @@
       <c r="E23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>15</v>
+      <c r="F23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="22" t="str">
+      <c r="J23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C23),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D23)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C23),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ri_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ri_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1749,7 +1838,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ri_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -1757,27 +1846,32 @@
       <c r="E24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>15</v>
+      <c r="F24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="22" t="str">
+      <c r="J24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C23),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D23)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C23),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ri_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ri_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_ri_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L24" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -1786,20 +1880,23 @@
         <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23" t="s">
@@ -1811,19 +1908,22 @@
       <c r="E26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>15</v>
+      <c r="F26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="22" t="str">
+      <c r="J26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C26),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D26)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C26),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ri_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ri_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1831,7 +1931,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ri_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -1839,27 +1939,32 @@
       <c r="E27" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>15</v>
+      <c r="F27" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="22" t="str">
+      <c r="J27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C26),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D26)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C26),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ri_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ri_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_ri_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L27" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -1868,20 +1973,23 @@
         <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23" t="s">
@@ -1893,19 +2001,22 @@
       <c r="E29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>15</v>
+      <c r="F29" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="22" t="str">
+      <c r="J29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C29),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D29)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C29),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ri_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ri_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1913,7 +2024,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ri_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -1921,27 +2032,32 @@
       <c r="E30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>15</v>
+      <c r="F30" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="22" t="str">
+      <c r="J30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C29),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D29)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C29),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ri_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ri_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_ri_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -1950,20 +2066,23 @@
         <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24" t="s">
         <v>32</v>
@@ -1977,19 +2096,22 @@
       <c r="E32" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>15</v>
+      <c r="F32" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="22" t="str">
+      <c r="J32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C32),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D32)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C32),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_r_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_r_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1997,7 +2119,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_r_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="23"/>
@@ -2005,27 +2127,32 @@
       <c r="E33" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>15</v>
+      <c r="F33" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I33" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="22" t="str">
+      <c r="J33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C32),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D32)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C32),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_r_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_r_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lb_r_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L33" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="23"/>
@@ -2034,20 +2161,23 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I34" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="23" t="s">
@@ -2059,19 +2189,22 @@
       <c r="E35" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>15</v>
+      <c r="F35" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I35" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J35" s="22" t="str">
+      <c r="J35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C35),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D35)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C35),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_r_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_r_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2079,7 +2212,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_r_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="23"/>
@@ -2087,27 +2220,32 @@
       <c r="E36" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>15</v>
+      <c r="F36" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I36" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="22" t="str">
+      <c r="J36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K36" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C35),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D35)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C35),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_r_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_r_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lbu_r_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L36" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="23"/>
@@ -2116,20 +2254,23 @@
         <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I37" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="23" t="s">
@@ -2141,19 +2282,22 @@
       <c r="E38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>15</v>
+      <c r="F38" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I38" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="22" t="str">
+      <c r="J38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K38" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C38),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D38)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C38),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_r_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_r_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2161,7 +2305,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_r_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="23"/>
@@ -2169,27 +2313,32 @@
       <c r="E39" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>15</v>
+      <c r="F39" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J39" s="22" t="str">
+      <c r="J39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C38),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D38)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C38),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_r_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_r_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lh_r_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L39" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="23"/>
@@ -2198,20 +2347,23 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I40" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="23" t="s">
@@ -2223,19 +2375,22 @@
       <c r="E41" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>15</v>
+      <c r="F41" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I41" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J41" s="22" t="str">
+      <c r="J41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K41" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C41),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D41)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C41),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_r_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_r_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2243,7 +2398,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_r_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="23"/>
@@ -2251,27 +2406,32 @@
       <c r="E42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>15</v>
+      <c r="F42" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I42" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="22" t="str">
+      <c r="J42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K42" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C41),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D41)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C41),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_r_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_r_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lhu_r_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L42" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="23"/>
@@ -2280,20 +2440,23 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I43" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="23" t="s">
@@ -2305,19 +2468,22 @@
       <c r="E44" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>15</v>
+      <c r="F44" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="22" t="str">
+      <c r="J44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K44" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C44),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D44)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C44),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_r_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_r_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2325,34 +2491,39 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_r_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="C45" s="23"/>
       <c r="D45" s="24"/>
       <c r="E45" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>15</v>
+      <c r="F45" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I45" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J45" s="22" t="str">
+      <c r="J45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K45" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C44),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D44)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C44),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_r_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_r_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_lw_r_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L45" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="C46" s="23"/>
       <c r="D46" s="24"/>
@@ -2360,20 +2531,23 @@
         <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>43</v>
       </c>
@@ -2389,19 +2563,22 @@
       <c r="E47" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>15</v>
+      <c r="F47" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I47" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J47" s="22" t="str">
+      <c r="J47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C47),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D47)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C47),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ii_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ii_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2409,7 +2586,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ii_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="23"/>
@@ -2417,27 +2594,32 @@
       <c r="E48" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>15</v>
+      <c r="F48" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I48" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J48" s="22" t="str">
+      <c r="J48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K48" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C47),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D47)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C47),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ii_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ii_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ii_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L48" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="23"/>
@@ -2446,20 +2628,23 @@
         <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="23" t="s">
@@ -2471,19 +2656,22 @@
       <c r="E50" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>15</v>
+      <c r="F50" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I50" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="22" t="str">
+      <c r="J50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K50" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C50),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D50)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C50),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ii_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ii_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2491,7 +2679,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ii_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="23"/>
@@ -2499,27 +2687,32 @@
       <c r="E51" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>15</v>
+      <c r="F51" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I51" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J51" s="22" t="str">
+      <c r="J51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K51" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C50),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D50)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C50),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ii_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ii_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ii_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L51" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="23"/>
@@ -2528,20 +2721,23 @@
         <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I52" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="23" t="s">
@@ -2553,19 +2749,22 @@
       <c r="E53" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>15</v>
+      <c r="F53" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I53" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="22" t="str">
+      <c r="J53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K53" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C53),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D53)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C53),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ii_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ii_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2573,7 +2772,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ii_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="23"/>
@@ -2581,27 +2780,32 @@
       <c r="E54" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>15</v>
+      <c r="F54" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I54" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J54" s="22" t="str">
+      <c r="J54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K54" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C53),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D53)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C53),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ii_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ii_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ii_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L54" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="23"/>
@@ -2610,20 +2814,23 @@
         <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I55" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="24" t="s">
         <v>48</v>
@@ -2637,19 +2844,22 @@
       <c r="E56" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F56" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>15</v>
+      <c r="F56" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I56" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J56" s="22" t="str">
+      <c r="J56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K56" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C56),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D56)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C56),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ri_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ri_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2657,7 +2867,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ri_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="23"/>
@@ -2665,27 +2875,32 @@
       <c r="E57" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>15</v>
+      <c r="F57" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I57" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J57" s="22" t="str">
+      <c r="J57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K57" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C56),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D56)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C56),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ri_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ri_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_ri_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L57" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
       <c r="C58" s="23"/>
@@ -2694,20 +2909,23 @@
         <v>13</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I58" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J58" s="12"/>
-    </row>
-    <row r="59" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="23" t="s">
@@ -2719,19 +2937,22 @@
       <c r="E59" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>15</v>
+      <c r="F59" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I59" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J59" s="22" t="str">
+      <c r="J59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K59" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C59),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D59)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C59),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ri_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ri_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2739,7 +2960,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ri_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="23"/>
@@ -2747,27 +2968,32 @@
       <c r="E60" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>15</v>
+      <c r="F60" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I60" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J60" s="22" t="str">
+      <c r="J60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K60" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C59),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D59)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C59),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ri_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ri_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_ri_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L60" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
       <c r="C61" s="23"/>
@@ -2776,20 +3002,23 @@
         <v>13</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J61" s="12"/>
-    </row>
-    <row r="62" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
       <c r="C62" s="23" t="s">
@@ -2801,19 +3030,22 @@
       <c r="E62" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F62" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>15</v>
+      <c r="F62" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I62" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J62" s="22" t="str">
+      <c r="J62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K62" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C62),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D62)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C62),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ri_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ri_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2821,7 +3053,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ri_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="23"/>
@@ -2829,27 +3061,32 @@
       <c r="E63" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>15</v>
+      <c r="F63" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I63" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J63" s="22" t="str">
+      <c r="J63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K63" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C62),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D62)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C62),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ri_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ri_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_ri_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L63" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
       <c r="C64" s="23"/>
@@ -2858,20 +3095,23 @@
         <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I64" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J64" s="12"/>
-    </row>
-    <row r="65" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="24" t="s">
         <v>55</v>
@@ -2885,19 +3125,22 @@
       <c r="E65" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F65" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>15</v>
+      <c r="F65" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I65" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J65" s="22" t="str">
+      <c r="J65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K65" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C65),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D65)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C65),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_r_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_r_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2905,7 +3148,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_r_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
       <c r="C66" s="23"/>
@@ -2913,27 +3156,32 @@
       <c r="E66" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F66" s="24"/>
-      <c r="G66" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>15</v>
+      <c r="F66" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I66" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J66" s="22" t="str">
+      <c r="J66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K66" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C65),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D65)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C65),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_r_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_r_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sb_r_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L66" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="23"/>
@@ -2942,20 +3190,23 @@
         <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I67" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J67" s="12"/>
-    </row>
-    <row r="68" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
       <c r="C68" s="23" t="s">
@@ -2967,19 +3218,22 @@
       <c r="E68" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G68" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>15</v>
+      <c r="F68" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I68" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J68" s="22" t="str">
+      <c r="J68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K68" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C68),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D68)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C68),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_r_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_r_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2987,7 +3241,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_r_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="23"/>
@@ -2995,27 +3249,32 @@
       <c r="E69" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>15</v>
+      <c r="F69" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I69" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J69" s="22" t="str">
+      <c r="J69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K69" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C68),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D68)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C68),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_r_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_r_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sh_r_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L69" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
       <c r="C70" s="23"/>
@@ -3024,20 +3283,23 @@
         <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I70" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="23" t="s">
@@ -3049,19 +3311,22 @@
       <c r="E71" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F71" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>15</v>
+      <c r="F71" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I71" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="22" t="str">
+      <c r="J71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K71" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C71),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D71)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C71),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_r_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_r_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -3069,7 +3334,7 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_r_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
       <c r="C72" s="23"/>
@@ -3077,27 +3342,32 @@
       <c r="E72" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>15</v>
+      <c r="F72" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I72" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J72" s="22" t="str">
+      <c r="J72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K72" s="22" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(LOWER($C71),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",D71)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(LOWER($C71),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_r_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_r_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sw_r_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L72" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
       <c r="C73" s="23"/>
@@ -3106,71 +3376,79 @@
         <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I73" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J73" s="12"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="E74" s="2"/>
+      <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="12"/>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="E75" s="2"/>
+      <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="E76" s="2"/>
+      <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="11"/>
-      <c r="J76" s="12"/>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="E77" s="2"/>
+      <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="12"/>
-    </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="E78" s="2"/>
+      <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="12"/>
-    </row>
-    <row r="79" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="17"/>
-      <c r="J79" s="18"/>
-    </row>
-    <row r="80" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B80" s="17"/>
-      <c r="J80" s="18"/>
-    </row>
-    <row r="81" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
-      <c r="J81" s="18"/>
-    </row>
-    <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>133</v>
       </c>
@@ -3186,18 +3464,19 @@
       <c r="E82" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F82" s="20"/>
+      <c r="F82" t="s">
+        <v>62</v>
+      </c>
       <c r="G82" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" t="s">
         <v>68</v>
       </c>
+      <c r="H82"/>
       <c r="I82" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>78</v>
       </c>
@@ -3213,18 +3492,19 @@
       <c r="E83" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="20"/>
+      <c r="F83" t="s">
+        <v>62</v>
+      </c>
       <c r="G83" t="s">
-        <v>62</v>
-      </c>
-      <c r="H83" t="s">
         <v>68</v>
       </c>
+      <c r="H83"/>
       <c r="I83" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>78</v>
       </c>
@@ -3240,18 +3520,19 @@
       <c r="E84" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F84" s="20"/>
+      <c r="F84" t="s">
+        <v>62</v>
+      </c>
       <c r="G84" t="s">
-        <v>62</v>
-      </c>
-      <c r="H84" t="s">
         <v>68</v>
       </c>
+      <c r="H84"/>
       <c r="I84" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>78</v>
       </c>
@@ -3267,18 +3548,19 @@
       <c r="E85" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F85" s="20"/>
+      <c r="F85" t="s">
+        <v>132</v>
+      </c>
       <c r="G85" t="s">
-        <v>132</v>
-      </c>
-      <c r="H85" t="s">
         <v>68</v>
       </c>
+      <c r="H85"/>
       <c r="I85" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>78</v>
       </c>
@@ -3294,18 +3576,19 @@
       <c r="E86" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F86" s="20"/>
+      <c r="F86" t="s">
+        <v>62</v>
+      </c>
       <c r="G86" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" t="s">
         <v>68</v>
       </c>
+      <c r="H86"/>
       <c r="I86" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>78</v>
       </c>
@@ -3321,18 +3604,19 @@
       <c r="E87" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="20"/>
+      <c r="F87" t="s">
+        <v>62</v>
+      </c>
       <c r="G87" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" t="s">
         <v>68</v>
       </c>
+      <c r="H87"/>
       <c r="I87" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>78</v>
       </c>
@@ -3348,18 +3632,19 @@
       <c r="E88" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F88" s="20"/>
+      <c r="F88" t="s">
+        <v>62</v>
+      </c>
       <c r="G88" t="s">
-        <v>62</v>
-      </c>
-      <c r="H88" t="s">
         <v>68</v>
       </c>
+      <c r="H88"/>
       <c r="I88" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>78</v>
       </c>
@@ -3375,18 +3660,19 @@
       <c r="E89" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="20"/>
+      <c r="F89" t="s">
+        <v>62</v>
+      </c>
       <c r="G89" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" t="s">
         <v>68</v>
       </c>
+      <c r="H89"/>
       <c r="I89" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
         <v>78</v>
       </c>
@@ -3402,18 +3688,19 @@
       <c r="E90" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F90" s="20"/>
+      <c r="F90" t="s">
+        <v>62</v>
+      </c>
       <c r="G90" t="s">
-        <v>62</v>
-      </c>
-      <c r="H90" t="s">
         <v>68</v>
       </c>
+      <c r="H90"/>
       <c r="I90" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>78</v>
       </c>
@@ -3429,18 +3716,19 @@
       <c r="E91" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="20"/>
+      <c r="F91" t="s">
+        <v>62</v>
+      </c>
       <c r="G91" t="s">
-        <v>62</v>
-      </c>
-      <c r="H91" t="s">
         <v>68</v>
       </c>
+      <c r="H91"/>
       <c r="I91" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
         <v>78</v>
       </c>
@@ -3456,18 +3744,19 @@
       <c r="E92" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F92" s="20"/>
+      <c r="F92" t="s">
+        <v>62</v>
+      </c>
       <c r="G92" t="s">
-        <v>62</v>
-      </c>
-      <c r="H92" t="s">
         <v>68</v>
       </c>
+      <c r="H92"/>
       <c r="I92" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
         <v>78</v>
       </c>
@@ -3483,18 +3772,19 @@
       <c r="E93" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F93" s="20"/>
+      <c r="F93" t="s">
+        <v>62</v>
+      </c>
       <c r="G93" t="s">
-        <v>62</v>
-      </c>
-      <c r="H93" t="s">
         <v>68</v>
       </c>
+      <c r="H93"/>
       <c r="I93" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
         <v>78</v>
       </c>
@@ -3510,18 +3800,19 @@
       <c r="E94" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F94" s="20"/>
+      <c r="F94" t="s">
+        <v>62</v>
+      </c>
       <c r="G94" t="s">
-        <v>62</v>
-      </c>
-      <c r="H94" t="s">
         <v>68</v>
       </c>
+      <c r="H94"/>
       <c r="I94" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
         <v>78</v>
       </c>
@@ -3537,18 +3828,19 @@
       <c r="E95" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F95" s="20"/>
+      <c r="F95" t="s">
+        <v>62</v>
+      </c>
       <c r="G95" t="s">
-        <v>62</v>
-      </c>
-      <c r="H95" t="s">
         <v>68</v>
       </c>
+      <c r="H95"/>
       <c r="I95" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>78</v>
       </c>
@@ -3564,18 +3856,19 @@
       <c r="E96" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F96" s="20"/>
+      <c r="F96" t="s">
+        <v>62</v>
+      </c>
       <c r="G96" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" t="s">
         <v>68</v>
       </c>
+      <c r="H96"/>
       <c r="I96" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
         <v>78</v>
       </c>
@@ -3591,18 +3884,19 @@
       <c r="E97" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F97" s="20"/>
+      <c r="F97" t="s">
+        <v>62</v>
+      </c>
       <c r="G97" t="s">
-        <v>62</v>
-      </c>
-      <c r="H97" t="s">
         <v>68</v>
       </c>
+      <c r="H97"/>
       <c r="I97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
         <v>78</v>
       </c>
@@ -3618,18 +3912,19 @@
       <c r="E98" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F98" s="20"/>
+      <c r="F98" t="s">
+        <v>62</v>
+      </c>
       <c r="G98" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98" t="s">
         <v>68</v>
       </c>
+      <c r="H98"/>
       <c r="I98" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
         <v>78</v>
       </c>
@@ -3645,18 +3940,19 @@
       <c r="E99" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="20"/>
+      <c r="F99" t="s">
+        <v>62</v>
+      </c>
       <c r="G99" t="s">
-        <v>62</v>
-      </c>
-      <c r="H99" t="s">
         <v>68</v>
       </c>
+      <c r="H99"/>
       <c r="I99" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
         <v>78</v>
       </c>
@@ -3672,18 +3968,19 @@
       <c r="E100" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F100" s="20"/>
+      <c r="F100" t="s">
+        <v>62</v>
+      </c>
       <c r="G100" t="s">
-        <v>62</v>
-      </c>
-      <c r="H100" t="s">
         <v>68</v>
       </c>
+      <c r="H100"/>
       <c r="I100" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
         <v>78</v>
       </c>
@@ -3699,18 +3996,19 @@
       <c r="E101" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F101" s="20"/>
+      <c r="F101" t="s">
+        <v>62</v>
+      </c>
       <c r="G101" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" t="s">
         <v>68</v>
       </c>
+      <c r="H101"/>
       <c r="I101" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
         <v>78</v>
       </c>
@@ -3726,18 +4024,19 @@
       <c r="E102" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F102" s="20"/>
+      <c r="F102" t="s">
+        <v>62</v>
+      </c>
       <c r="G102" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" t="s">
         <v>68</v>
       </c>
+      <c r="H102"/>
       <c r="I102" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
         <v>78</v>
       </c>
@@ -3753,18 +4052,19 @@
       <c r="E103" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F103" s="20"/>
+      <c r="F103" t="s">
+        <v>62</v>
+      </c>
       <c r="G103" t="s">
-        <v>62</v>
-      </c>
-      <c r="H103" t="s">
         <v>68</v>
       </c>
+      <c r="H103"/>
       <c r="I103" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
         <v>78</v>
       </c>
@@ -3780,18 +4080,19 @@
       <c r="E104" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F104" s="20"/>
+      <c r="F104" t="s">
+        <v>62</v>
+      </c>
       <c r="G104" t="s">
-        <v>62</v>
-      </c>
-      <c r="H104" t="s">
         <v>68</v>
       </c>
+      <c r="H104"/>
       <c r="I104" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
         <v>78</v>
       </c>
@@ -3807,104 +4108,81 @@
       <c r="E105" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F105" s="20"/>
+      <c r="F105" t="s">
+        <v>62</v>
+      </c>
       <c r="G105" t="s">
-        <v>62</v>
-      </c>
-      <c r="H105" t="s">
         <v>68</v>
       </c>
+      <c r="H105"/>
       <c r="I105" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G113" s="1" t="s">
+      <c r="J105" s="20"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="1" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="56">
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A44"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="B17:B31"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D32:D34"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="B65:B73"/>
     <mergeCell ref="A47:A73"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D20:D22"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D32:D34"/>
     <mergeCell ref="C32:C34"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
     <mergeCell ref="C53:C55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="C47:C49"/>
     <mergeCell ref="C62:C64"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C56:C58"/>
     <mergeCell ref="D71:D73"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F59:F60"/>
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A44"/>
-    <mergeCell ref="B32:B44"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="B17:B31"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C65:C67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4001,22 +4279,22 @@
     </row>
     <row r="14" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4025,6 +4303,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed">
@@ -4050,15 +4337,6 @@
     <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4293,20 +4571,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A6B9757-E05F-4D92-9996-F4CFC5E356C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C72658-43A3-49B2-946B-4FBFF5C4DC74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
     <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A6B9757-E05F-4D92-9996-F4CFC5E356C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
